--- a/tools/excel/adobe/mappings/mapping-adobe-ccf-v5-to-nist-csf-1.1.xlsx
+++ b/tools/excel/adobe/mappings/mapping-adobe-ccf-v5-to-nist-csf-1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\adobe\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAACE5-6503-4E4B-B1E5-762D54055805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45DDE6-3F6D-46B9-AA87-EAD88ADEDC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="-12960" windowWidth="20865" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7154,7 +7154,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
